--- a/MI_Audit_UBR_audited.xlsx
+++ b/MI_Audit_UBR_audited.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -32,12 +31,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +69,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -553,7 +567,7 @@
           <t>Python Basics 1</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>46170</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -589,17 +603,17 @@
           <t>xyz123</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>Mismatch</t>
         </is>
@@ -647,7 +661,7 @@
           <t>Python Basics 2</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>46055</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -683,17 +697,17 @@
           <t>xyz2567</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>Mismatch</t>
         </is>
@@ -741,7 +755,7 @@
           <t>Python Basics 10</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>46055</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -777,22 +791,22 @@
           <t>xyz2567</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
@@ -802,10 +816,6 @@
           <t>Eligible</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -821,7 +831,7 @@
           <t>Python Basics 11</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>46146</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -857,22 +867,22 @@
           <t>xyz2567</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
@@ -882,10 +892,6 @@
           <t>Eligible</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -901,7 +907,7 @@
           <t>Python Basics 5</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>46205</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -942,17 +948,17 @@
           <t>Match</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>Mismatch</t>
         </is>
@@ -995,7 +1001,7 @@
           <t>Python Basics 6</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>46365</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -1031,22 +1037,22 @@
           <t>xyz12343</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>Mismatch</t>
         </is>
@@ -1089,7 +1095,7 @@
           <t>Python Basics 7</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -1125,22 +1131,22 @@
           <t>xyz14787</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>Mismatch</t>
         </is>
@@ -1183,7 +1189,7 @@
           <t>Python Basics 8</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>46362</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -1219,22 +1225,22 @@
           <t>xyz123</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>Mismatch</t>
         </is>
@@ -1277,7 +1283,7 @@
           <t>Python Basics 9</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>46256</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1313,22 +1319,22 @@
           <t>xyz2567</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
@@ -1338,10 +1344,6 @@
           <t>Eligible</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1357,7 +1359,7 @@
           <t>Python Basics 3</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>46200</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -1393,22 +1395,22 @@
           <t>xyz2567</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>Mismatch</t>
         </is>
@@ -1451,7 +1453,7 @@
           <t>Python Basics 4</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>46317</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1487,22 +1489,22 @@
           <t>xyz2567</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>Mismatch</t>
+        </is>
+      </c>
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>Mismatch</t>
         </is>
@@ -1545,7 +1547,7 @@
           <t>Python Basics 12</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>46201</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -1581,22 +1583,22 @@
           <t>xyz123</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>Course Not Found</t>
         </is>
@@ -1606,10 +1608,6 @@
           <t>Not Eligible</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
